--- a/docs/Bradesco CNAB 400 normalizado.xlsx
+++ b/docs/Bradesco CNAB 400 normalizado.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="880">
   <si>
     <t xml:space="preserve">Nome do arquivo:</t>
   </si>
@@ -360,6 +360,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Identificações do Débito Automático em C/C</t>
     </r>
@@ -368,6 +369,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Somente deverão ser preenchidos, caso o cliente Beneficiário esteja
 previamente cadastrado para operar com a modalidade de cobrança com
@@ -520,6 +522,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Códigos do Banco para Débito - “237” </t>
     </r>
@@ -528,6 +531,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">                                                                                                                 Deverão ser informados 237, caso o cliente Beneficiário tenha optado
 pelo débito automático em Conta do Pagador.
@@ -559,6 +563,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Identificativos de Multa</t>
     </r>
@@ -567,6 +572,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Se = 0 (sem multa)
 Se = 2 (tem multa)</t>
@@ -598,6 +604,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Percentual de Multa por Atraso</t>
     </r>
@@ -606,6 +613,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Se campo 66 a 66 = 0, preencher com zeros.
 Se campo 66 a 66 = 2, preencher com percentual da multa com 2 decimais.</t>
@@ -639,6 +647,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Campo reservado para o Nosso Número do Título (Número Bancário).    </t>
     </r>
@@ -647,6 +656,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Nosso</t>
     </r>
@@ -656,6 +666,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -664,6 +675,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Número - poderá ser gerado a partir de
 00000000001, 00000000002 etc - 11 posições, devendo ser atribuídonumero diferenciado para identificação de cada documento na CobrançaBradesco. </t>
@@ -674,6 +686,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">     </t>
     </r>
@@ -682,6 +695,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">                                                                                                                EMISSÃO DO BOLETO PELO BANCO                                                                       - Cobrança com Registro: Neste caso, esse campo deverá ser enviado com
 “Zeros”, pois o sistema informará o Nosso Número no Arquivo Retorno,
@@ -708,6 +722,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Campo reservado para o Nosso Número do Título (Número Bancário</t>
     </r>
@@ -716,6 +731,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)      Dígito de auto-conferência do Nosso Número - 1
 posição.                                                                                                                              Para o cálculo do dígito, será necessário acrescentar o número da
@@ -769,6 +785,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Se for igual a 1 = o Banco emite o Boleto e processa o registro</t>
     </r>
@@ -777,6 +794,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- Se o Nosso Número for informado na posição 71 a 82 do registro de
 transação, o Banco assume.
@@ -789,6 +807,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Se for igual a 2 = o Cliente emite o Boleto e o Banco somente processa
 o registro</t>
@@ -798,6 +817,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-  Neste caso, será obrigatório informar o Nosso Número formatado na
 posição 71 a 82 do registro de transação tipo 1</t>
@@ -1057,6 +1077,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Campo destinado para pré-determinar o protesto do Título ou a baixa por
 decurso de prazo, quando do registro.                                                                                                                                                                         Não havendo interesse, preencher com Zeros.                                                                                                                                                                                                                                 </t>
@@ -1067,6 +1088,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Protesto:</t>
     </r>
@@ -1075,6 +1097,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- posição 157 a 158 = Indicar o código “06” - (Protestar).
 - posição 159 a 160 = Indicar o número de dias a protestar (mínimo 5
@@ -1086,6 +1109,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Protesto Falimentar:</t>
     </r>
@@ -1094,6 +1118,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- posição 157 a 158 = Indicar o código “05” – (Protesto Falimentar)
 - posição 159 a 160 = Indicar o número de dias a protestar (mínimo 5
@@ -1105,6 +1130,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Decurso de Prazo:</t>
     </r>
@@ -1113,6 +1139,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- posição 157 a 158 = Indicar o código “18” – (Decurso de prazo).
 - posição 159 a 160 = Indicar o número de dias para baixa por decurso de
@@ -1134,6 +1161,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Instruções devem ser enviadas no Arquivo-Remessa,
 quando da entrada, desde que o código de ocorrência na posição 109
@@ -1146,6 +1174,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cancelamento da Instrução Automática de Protesto</t>
     </r>
@@ -1154,6 +1183,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Para cancelar a instrução automática de protesto, basta enviar um
 Arquivo Remessa com as seguintes características:
@@ -1195,6 +1225,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Instruções devem ser enviadas no Arquivo-Remessa,
 quando da entrada, desde que o código de ocorrência na posição 109
@@ -1207,6 +1238,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cancelamento da Instrução Automática de Protesto</t>
     </r>
@@ -1215,6 +1247,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Para cancelar a instrução automática de protesto, enviar um
 Arquivo Remessa com as seguintes características:
@@ -1245,6 +1278,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Informar o valor da mora dia a ser
 cobrado do Pagador, no caso de pagamento com atraso (somente valor).                                                                                                                             </t>
@@ -1255,6 +1289,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Emissão dos boletos pelo próprio cliente                                                         </t>
     </r>
@@ -1263,6 +1298,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Quando houver Comissão
 de Permanência a ser cobrado por dia de atraso, será obrigatória a
@@ -1465,6 +1501,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Pode ser utilizado para a
 finalidade de Sacador/Avalista ou mensagem
@@ -1475,6 +1512,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Este campo poderá ser utilizado para informar:
 - Somente Sacador/Avalista, ou Somente Mensagem.
@@ -1492,6 +1530,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Sacador / Avalista: </t>
     </r>
@@ -1500,6 +1539,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">                                                                                          CNPJ/CPF do Sacador Avalista (o critério para preenchimento, deve ser o mesmo tanto para o CNPJ como para o CPF, ou seja, iniciando da direita para a
 esquerda:
@@ -1515,6 +1555,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Mensagem a ser impressa no boleto, ou no Extrato de Aviso de Débito Automático ao Sacador:</t>
     </r>
@@ -1523,6 +1564,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">                                                                                                                                                                                                                                                         Condição Automática do cadastro mensagem livre                                                                                                                                                                                                                                                                   60 Alfanumérico                                                    </t>
     </r>
@@ -2368,6 +2410,9 @@
   </si>
   <si>
     <t xml:space="preserve">108 a 108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">portfolio</t>
   </si>
   <si>
     <t xml:space="preserve">portcode</t>
@@ -2424,6 +2469,9 @@
 Banco</t>
   </si>
   <si>
+    <t xml:space="preserve">occurrenceDate</t>
+  </si>
+  <si>
     <t xml:space="preserve">occurrdate</t>
   </si>
   <si>
@@ -2438,6 +2486,9 @@
   <si>
     <t xml:space="preserve">Identificação do
 Título no Banco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ourNumber2</t>
   </si>
   <si>
     <t xml:space="preserve">ournumberconf</t>
@@ -2499,6 +2550,9 @@
 Tarifas</t>
   </si>
   <si>
+    <t xml:space="preserve">billingFare</t>
+  </si>
+  <si>
     <t xml:space="preserve">billingfare</t>
   </si>
   <si>
@@ -2520,6 +2574,9 @@
 Custas de Protesto</t>
   </si>
   <si>
+    <t xml:space="preserve">otherDebits</t>
+  </si>
+  <si>
     <t xml:space="preserve">otherchanges</t>
   </si>
   <si>
@@ -2540,6 +2597,9 @@
 Atraso</t>
   </si>
   <si>
+    <t xml:space="preserve">lateInterest</t>
+  </si>
+  <si>
     <t xml:space="preserve">interestop</t>
   </si>
   <si>
@@ -2595,6 +2655,9 @@
   </si>
   <si>
     <t xml:space="preserve">Valor Pago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mainValue</t>
   </si>
   <si>
     <t xml:space="preserve">mainvalue</t>
@@ -2605,6 +2668,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Neste campo será informado o valor total recebido, sendo que na posição 267
 a 279 será discriminado o valor dos juros de mora e na posição 241 a 253, o
@@ -2616,6 +2680,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Para título com abatimento, pago vencido:</t>
     </r>
@@ -2624,6 +2689,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- se o valor do abatimento for maior que o valor dos juros (diferença
 do abatimento menos os juros), a informação será enviada nos campos 241 a
@@ -2640,6 +2706,9 @@
     <t xml:space="preserve">Juros de Mora</t>
   </si>
   <si>
+    <t xml:space="preserve">interests</t>
+  </si>
+  <si>
     <t xml:space="preserve">interest</t>
   </si>
   <si>
@@ -2647,6 +2716,9 @@
   </si>
   <si>
     <t xml:space="preserve">Outros Créditos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otherCredits</t>
   </si>
   <si>
     <t xml:space="preserve">othercredits</t>
@@ -2666,6 +2738,9 @@
 de Instrução de Protesto Falimentar e (Do
 Código
 de Instrução de Protesto)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eventCode25</t>
   </si>
   <si>
     <t xml:space="preserve">eventcod25</t>
@@ -2696,6 +2771,9 @@
     <t xml:space="preserve">Origem Pagamento</t>
   </si>
   <si>
+    <t xml:space="preserve">channel</t>
+  </si>
+  <si>
     <t xml:space="preserve">paymentsource</t>
   </si>
   <si>
@@ -2710,6 +2788,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Informa o código correspondente ao canal de pagamento para os códigos de
 ocorrência (06 – Liquidação, 15 – Liquidação em Cartório 17 - Liquidação
@@ -2721,6 +2800,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Essa informação será disponibilizada no arquivo retorno somente para
 as empresas previamente cadastradas para essa condição.  </t>
@@ -2730,6 +2810,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">                    Guichê de Caixa:
 01 – CICS (AT00)
@@ -2760,6 +2841,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2791,6 +2873,9 @@
 109 a 110</t>
   </si>
   <si>
+    <t xml:space="preserve">motive</t>
+  </si>
+  <si>
     <t xml:space="preserve">rejectioncod</t>
   </si>
   <si>
@@ -2813,6 +2898,9 @@
     <t xml:space="preserve">Número do Cartório</t>
   </si>
   <si>
+    <t xml:space="preserve">registry</t>
+  </si>
+  <si>
     <t xml:space="preserve">registrynum</t>
   </si>
   <si>
@@ -2823,6 +2911,9 @@
   </si>
   <si>
     <t xml:space="preserve">Número do Protocolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protocol</t>
   </si>
   <si>
     <t xml:space="preserve">recordnum</t>
@@ -3466,6 +3557,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Motivos</t>
     </r>
@@ -3474,6 +3566,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">                                                                                                                                 00..Remessa para rateio aceita, Título aguardando rateio
 01..Conta Beneficiário inválida para Banco 237
@@ -3515,6 +3608,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Motivo</t>
     </r>
@@ -3523,6 +3617,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">                                                                                                                                               07..Título rejeitado na cobrança</t>
     </r>
@@ -3537,6 +3632,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Motivos</t>
     </r>
@@ -3545,6 +3641,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">38..Rateio efetuado, beneficiário aguardando crédito
 39..Rateio efetuado, beneficiário já creditado
@@ -3565,6 +3662,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Motivos</t>
     </r>
@@ -3573,6 +3671,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">37..Cancelamento de rateio por motivo de baixa comandada
 43..Ocorrência não possui rateio</t>
@@ -3588,6 +3687,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Motivos</t>
     </r>
@@ -3596,6 +3696,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">00..Remessa para rateio aceita, Título aguardando rateio
 01..Conta beneficiário invalida, para o Banco 237
@@ -3646,6 +3747,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Motivos</t>
     </r>
@@ -3654,6 +3756,7 @@
         <sz val="10"/>
         <rFont val="宋体"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">04..Remessa rat. rejeitado, posição 105 diferente de “R” ou branco
 05..Empresa inativa para rateio
@@ -3929,6 +4032,9 @@
     <t xml:space="preserve">Valor dos Registros - Ocorência 12 - Abatimento Concedido</t>
   </si>
   <si>
+    <t xml:space="preserve">rebateValue</t>
+  </si>
+  <si>
     <t xml:space="preserve">valueevent12</t>
   </si>
   <si>
@@ -4018,6 +4124,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4038,28 +4145,33 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF073763"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="宋体"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4373,16 +4485,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.4540816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.0663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.1530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.9591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.8877551020408"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.0102040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.5969387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="53.969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="16.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.4489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.719387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.0561224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.5561224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.2602040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.4948979591837"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="56.4540816326531"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="60.1785714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="17.9285714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11664,20 +11776,20 @@
   <dimension ref="A1:AB166"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C136" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E167" activeCellId="0" sqref="E167"/>
+      <selection pane="topLeft" activeCell="D161" activeCellId="0" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.2397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.4030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.9438775510204"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="28.0510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.2142857142857"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.0561224489796"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.4540816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="16.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.2040816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.8061224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="31.0663265306122"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="43.3163265306122"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="41.719387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="17.9285714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13056,7 +13168,7 @@
       <c r="AA32" s="21"/>
       <c r="AB32" s="21"/>
     </row>
-    <row r="33" customFormat="false" ht="45.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="21" t="s">
         <v>15</v>
       </c>
@@ -13067,7 +13179,9 @@
       <c r="D33" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="E33" s="21"/>
+      <c r="E33" s="21" t="s">
+        <v>195</v>
+      </c>
       <c r="F33" s="21" t="s">
         <v>196</v>
       </c>
@@ -13142,7 +13256,7 @@
       <c r="AA34" s="21"/>
       <c r="AB34" s="21"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="21"/>
       <c r="B35" s="21" t="s">
         <v>15</v>
@@ -13153,9 +13267,11 @@
       <c r="D35" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="E35" s="21"/>
+      <c r="E35" s="21" t="s">
+        <v>564</v>
+      </c>
       <c r="F35" s="21" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>20</v>
@@ -13193,9 +13309,11 @@
         <v>79</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="E36" s="21"/>
+        <v>566</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>206</v>
+      </c>
       <c r="F36" s="21" t="s">
         <v>207</v>
       </c>
@@ -13203,10 +13321,10 @@
         <v>36</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
@@ -13234,14 +13352,16 @@
         <v>15</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>569</v>
-      </c>
-      <c r="E37" s="21"/>
+        <v>570</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>571</v>
+      </c>
       <c r="F37" s="21" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G37" s="21" t="s">
         <v>72</v>
@@ -13276,10 +13396,10 @@
       </c>
       <c r="B38" s="21"/>
       <c r="C38" s="21" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E38" s="21" t="s">
         <v>212</v>
@@ -13320,14 +13440,16 @@
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="21" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>574</v>
-      </c>
-      <c r="E39" s="21"/>
+        <v>576</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>577</v>
+      </c>
       <c r="F39" s="21" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>48</v>
@@ -13336,7 +13458,7 @@
         <v>553</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
@@ -13364,10 +13486,10 @@
         <v>15</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="E40" s="21" t="s">
         <v>217</v>
@@ -13408,7 +13530,7 @@
         <v>15</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D41" s="21" t="s">
         <v>220</v>
@@ -13423,7 +13545,7 @@
         <v>222</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
@@ -13452,10 +13574,10 @@
         <v>15</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E42" s="21" t="s">
         <v>226</v>
@@ -13467,7 +13589,7 @@
         <v>61</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
@@ -13496,10 +13618,10 @@
         <v>15</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>231</v>
@@ -13511,7 +13633,7 @@
         <v>103</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
@@ -13540,10 +13662,10 @@
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="21" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="E44" s="21" t="s">
         <v>235</v>
@@ -13584,23 +13706,25 @@
         <v>15</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>590</v>
-      </c>
-      <c r="E45" s="21"/>
+        <v>593</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>594</v>
+      </c>
       <c r="F45" s="21" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="G45" s="21" t="s">
         <v>222</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
@@ -13628,23 +13752,25 @@
         <v>15</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>595</v>
-      </c>
-      <c r="E46" s="21"/>
+        <v>599</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>600</v>
+      </c>
       <c r="F46" s="21" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>222</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
@@ -13672,20 +13798,22 @@
         <v>15</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="E47" s="21"/>
+        <v>605</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>606</v>
+      </c>
       <c r="F47" s="21" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="G47" s="21" t="s">
         <v>222</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
@@ -13714,12 +13842,14 @@
         <v>15</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>604</v>
-      </c>
-      <c r="E48" s="21"/>
+        <v>610</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>273</v>
+      </c>
       <c r="F48" s="21" t="s">
         <v>273</v>
       </c>
@@ -13730,7 +13860,7 @@
         <v>272</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
@@ -13758,12 +13888,14 @@
         <v>15</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>607</v>
-      </c>
-      <c r="E49" s="21"/>
+        <v>613</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>277</v>
+      </c>
       <c r="F49" s="21" t="s">
         <v>277</v>
       </c>
@@ -13771,10 +13903,10 @@
         <v>222</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="J49" s="21"/>
       <c r="K49" s="21"/>
@@ -13802,12 +13934,14 @@
         <v>15</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>611</v>
-      </c>
-      <c r="E50" s="21"/>
+        <v>617</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>173</v>
+      </c>
       <c r="F50" s="21" t="s">
         <v>173</v>
       </c>
@@ -13815,10 +13949,10 @@
         <v>222</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
@@ -13840,29 +13974,31 @@
       <c r="AA50" s="21"/>
       <c r="AB50" s="21"/>
     </row>
-    <row r="51" customFormat="false" ht="206.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="185.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="21"/>
       <c r="B51" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>615</v>
-      </c>
-      <c r="E51" s="21"/>
+        <v>621</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>622</v>
+      </c>
       <c r="F51" s="21" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="G51" s="21" t="s">
         <v>222</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="I51" s="21" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
@@ -13890,20 +14026,22 @@
         <v>15</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>619</v>
-      </c>
-      <c r="E52" s="21"/>
+        <v>626</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>627</v>
+      </c>
       <c r="F52" s="21" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="G52" s="21" t="s">
         <v>222</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="I52" s="21"/>
       <c r="J52" s="21"/>
@@ -13932,20 +14070,22 @@
         <v>15</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>622</v>
-      </c>
-      <c r="E53" s="21"/>
+        <v>630</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>631</v>
+      </c>
       <c r="F53" s="21" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="G53" s="21" t="s">
         <v>222</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="I53" s="21"/>
       <c r="J53" s="21"/>
@@ -13974,7 +14114,7 @@
       </c>
       <c r="B54" s="21"/>
       <c r="C54" s="21" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="D54" s="21" t="s">
         <v>192</v>
@@ -14016,23 +14156,25 @@
       </c>
       <c r="B55" s="21"/>
       <c r="C55" s="21" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>627</v>
-      </c>
-      <c r="E55" s="21"/>
+        <v>636</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>637</v>
+      </c>
       <c r="F55" s="21" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="G55" s="21" t="s">
         <v>20</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="J55" s="21"/>
       <c r="K55" s="21"/>
@@ -14060,12 +14202,14 @@
         <v>15</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="D56" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="E56" s="21"/>
+      <c r="E56" s="21" t="s">
+        <v>527</v>
+      </c>
       <c r="F56" s="21" t="s">
         <v>528</v>
       </c>
@@ -14102,23 +14246,25 @@
         <v>15</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>633</v>
-      </c>
-      <c r="E57" s="21"/>
+        <v>643</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>644</v>
+      </c>
       <c r="F57" s="21" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="I57" s="21" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
@@ -14146,7 +14292,7 @@
       </c>
       <c r="B58" s="21"/>
       <c r="C58" s="21" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="D58" s="21" t="s">
         <v>192</v>
@@ -14188,20 +14334,22 @@
         <v>15</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>640</v>
-      </c>
-      <c r="E59" s="21"/>
+        <v>651</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>59</v>
+      </c>
       <c r="F59" s="21" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="G59" s="21" t="s">
         <v>155</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="I59" s="21"/>
       <c r="J59" s="21"/>
@@ -14230,23 +14378,25 @@
         <v>15</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>644</v>
-      </c>
-      <c r="E60" s="21"/>
+        <v>655</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>656</v>
+      </c>
       <c r="F60" s="21" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="G60" s="21" t="s">
         <v>174</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="I60" s="21" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="J60" s="21"/>
       <c r="K60" s="21"/>
@@ -14274,14 +14424,14 @@
       </c>
       <c r="B61" s="21"/>
       <c r="C61" s="21" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="D61" s="21" t="s">
         <v>192</v>
       </c>
       <c r="E61" s="21"/>
       <c r="F61" s="21" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="G61" s="21" t="s">
         <v>294</v>
@@ -14316,23 +14466,25 @@
         <v>15</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>651</v>
-      </c>
-      <c r="E62" s="21"/>
+        <v>663</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>664</v>
+      </c>
       <c r="F62" s="21" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="G62" s="21" t="s">
         <v>36</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="I62" s="21" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="J62" s="21"/>
       <c r="K62" s="21"/>
@@ -14360,23 +14512,25 @@
       </c>
       <c r="B63" s="21"/>
       <c r="C63" s="21" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>655</v>
-      </c>
-      <c r="E63" s="21"/>
+        <v>668</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>669</v>
+      </c>
       <c r="F63" s="21" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="G63" s="21" t="s">
         <v>174</v>
       </c>
       <c r="H63" s="21" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="I63" s="21" t="s">
-        <v>658</v>
+        <v>672</v>
       </c>
       <c r="J63" s="21"/>
       <c r="K63" s="21"/>
@@ -14404,14 +14558,14 @@
         <v>15</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="D64" s="21" t="s">
         <v>192</v>
       </c>
       <c r="E64" s="21"/>
       <c r="F64" s="21" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="G64" s="21" t="s">
         <v>288</v>
@@ -14461,7 +14615,7 @@
         <v>72</v>
       </c>
       <c r="H65" s="21" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="I65" s="21"/>
       <c r="J65" s="21"/>
@@ -14523,7 +14677,7 @@
         <v>365</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="C67" s="22"/>
       <c r="D67" s="22"/>
@@ -14554,10 +14708,10 @@
     </row>
     <row r="68" customFormat="false" ht="649" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="23" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="C68" s="23"/>
       <c r="D68" s="23"/>
@@ -14588,10 +14742,10 @@
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="23" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="C69" s="23"/>
       <c r="D69" s="23"/>
@@ -14622,10 +14776,10 @@
     </row>
     <row r="70" customFormat="false" ht="239.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="23" t="s">
-        <v>667</v>
+        <v>681</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>668</v>
+        <v>682</v>
       </c>
       <c r="C70" s="23"/>
       <c r="D70" s="23"/>
@@ -14656,10 +14810,10 @@
     </row>
     <row r="71" customFormat="false" ht="55.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="23" t="s">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="C71" s="23"/>
       <c r="D71" s="23"/>
@@ -14690,10 +14844,10 @@
     </row>
     <row r="72" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="23" t="s">
-        <v>671</v>
+        <v>685</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="C72" s="23"/>
       <c r="D72" s="23"/>
@@ -14724,10 +14878,10 @@
     </row>
     <row r="73" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="23" t="s">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="C73" s="23"/>
       <c r="D73" s="23"/>
@@ -14758,10 +14912,10 @@
     </row>
     <row r="74" customFormat="false" ht="45.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="23" t="s">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="C74" s="23"/>
       <c r="D74" s="23"/>
@@ -14792,10 +14946,10 @@
     </row>
     <row r="75" customFormat="false" ht="45.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="23" t="s">
-        <v>676</v>
+        <v>690</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="C75" s="23"/>
       <c r="D75" s="23"/>
@@ -14826,10 +14980,10 @@
     </row>
     <row r="76" customFormat="false" ht="152.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="23" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="C76" s="23"/>
       <c r="D76" s="23"/>
@@ -14860,10 +15014,10 @@
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="23" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="C77" s="23"/>
       <c r="D77" s="23"/>
@@ -14894,10 +15048,10 @@
     </row>
     <row r="78" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="23" t="s">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="C78" s="23"/>
       <c r="D78" s="23"/>
@@ -14928,10 +15082,10 @@
     </row>
     <row r="79" customFormat="false" ht="465.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="23" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="C79" s="23"/>
       <c r="D79" s="23"/>
@@ -14962,10 +15116,10 @@
     </row>
     <row r="80" customFormat="false" ht="541.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="23" t="s">
-        <v>686</v>
+        <v>700</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>687</v>
+        <v>701</v>
       </c>
       <c r="C80" s="23"/>
       <c r="D80" s="23"/>
@@ -14996,10 +15150,10 @@
     </row>
     <row r="81" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="23" t="s">
-        <v>688</v>
+        <v>702</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>689</v>
+        <v>703</v>
       </c>
       <c r="C81" s="23"/>
       <c r="D81" s="23"/>
@@ -15069,10 +15223,10 @@
         <v>501</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>690</v>
+        <v>704</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>691</v>
+        <v>705</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
@@ -15197,7 +15351,7 @@
         <v>372</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>692</v>
+        <v>706</v>
       </c>
       <c r="E86" s="21"/>
       <c r="F86" s="21"/>
@@ -15205,10 +15359,10 @@
         <v>374</v>
       </c>
       <c r="H86" s="21" t="s">
-        <v>693</v>
+        <v>707</v>
       </c>
       <c r="I86" s="21" t="s">
-        <v>694</v>
+        <v>708</v>
       </c>
       <c r="J86" s="21"/>
       <c r="K86" s="21"/>
@@ -15250,7 +15404,7 @@
         <v>358</v>
       </c>
       <c r="I87" s="21" t="s">
-        <v>695</v>
+        <v>709</v>
       </c>
       <c r="J87" s="21"/>
       <c r="K87" s="21"/>
@@ -15281,7 +15435,7 @@
         <v>380</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>696</v>
+        <v>710</v>
       </c>
       <c r="E88" s="21"/>
       <c r="F88" s="21"/>
@@ -15289,7 +15443,7 @@
         <v>20</v>
       </c>
       <c r="H88" s="21" t="s">
-        <v>697</v>
+        <v>711</v>
       </c>
       <c r="I88" s="21"/>
       <c r="J88" s="21"/>
@@ -15401,7 +15555,7 @@
         <v>389</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="E91" s="21"/>
       <c r="F91" s="21"/>
@@ -15441,7 +15595,7 @@
         <v>392</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="E92" s="21"/>
       <c r="F92" s="21"/>
@@ -15481,7 +15635,7 @@
         <v>395</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="E93" s="21"/>
       <c r="F93" s="21"/>
@@ -15521,7 +15675,7 @@
         <v>398</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>701</v>
+        <v>715</v>
       </c>
       <c r="E94" s="21"/>
       <c r="F94" s="21"/>
@@ -15529,7 +15683,7 @@
         <v>302</v>
       </c>
       <c r="H94" s="21" t="s">
-        <v>702</v>
+        <v>716</v>
       </c>
       <c r="I94" s="21"/>
       <c r="J94" s="21"/>
@@ -15561,7 +15715,7 @@
         <v>401</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>703</v>
+        <v>717</v>
       </c>
       <c r="E95" s="21"/>
       <c r="F95" s="21"/>
@@ -15569,7 +15723,7 @@
         <v>20</v>
       </c>
       <c r="H95" s="21" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
       <c r="I95" s="21"/>
       <c r="J95" s="21"/>
@@ -15601,7 +15755,7 @@
         <v>404</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="E96" s="21"/>
       <c r="F96" s="21"/>
@@ -15609,10 +15763,10 @@
         <v>42</v>
       </c>
       <c r="H96" s="21" t="s">
-        <v>706</v>
+        <v>720</v>
       </c>
       <c r="I96" s="21" t="s">
-        <v>707</v>
+        <v>721</v>
       </c>
       <c r="J96" s="21"/>
       <c r="K96" s="21"/>
@@ -15680,7 +15834,7 @@
       </c>
       <c r="B98" s="21"/>
       <c r="C98" s="21" t="s">
-        <v>708</v>
+        <v>722</v>
       </c>
       <c r="D98" s="21" t="s">
         <v>343</v>
@@ -15688,7 +15842,7 @@
       <c r="E98" s="21"/>
       <c r="F98" s="21"/>
       <c r="G98" s="21" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
       <c r="H98" s="21" t="s">
         <v>192</v>
@@ -15720,7 +15874,7 @@
       </c>
       <c r="B99" s="21"/>
       <c r="C99" s="21" t="s">
-        <v>710</v>
+        <v>724</v>
       </c>
       <c r="D99" s="21" t="s">
         <v>415</v>
@@ -15760,10 +15914,10 @@
         <v>15</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>711</v>
+        <v>725</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>712</v>
+        <v>726</v>
       </c>
       <c r="E100" s="21"/>
       <c r="F100" s="21"/>
@@ -15771,7 +15925,7 @@
         <v>61</v>
       </c>
       <c r="H100" s="21" t="s">
-        <v>713</v>
+        <v>727</v>
       </c>
       <c r="I100" s="21"/>
       <c r="J100" s="21"/>
@@ -15800,10 +15954,10 @@
         <v>15</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>714</v>
+        <v>728</v>
       </c>
       <c r="D101" s="21" t="s">
-        <v>715</v>
+        <v>729</v>
       </c>
       <c r="E101" s="21"/>
       <c r="F101" s="21"/>
@@ -15811,10 +15965,10 @@
         <v>78</v>
       </c>
       <c r="H101" s="21" t="s">
-        <v>716</v>
+        <v>730</v>
       </c>
       <c r="I101" s="21" t="s">
-        <v>717</v>
+        <v>731</v>
       </c>
       <c r="J101" s="21"/>
       <c r="K101" s="21"/>
@@ -15845,7 +15999,7 @@
         <v>251</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>718</v>
+        <v>732</v>
       </c>
       <c r="E102" s="21"/>
       <c r="F102" s="21"/>
@@ -15853,7 +16007,7 @@
         <v>36</v>
       </c>
       <c r="H102" s="21" t="s">
-        <v>719</v>
+        <v>733</v>
       </c>
       <c r="I102" s="21"/>
       <c r="J102" s="21"/>
@@ -15885,7 +16039,7 @@
         <v>422</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>720</v>
+        <v>734</v>
       </c>
       <c r="E103" s="21"/>
       <c r="F103" s="21"/>
@@ -15925,7 +16079,7 @@
         <v>424</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>721</v>
+        <v>735</v>
       </c>
       <c r="E104" s="21"/>
       <c r="F104" s="21"/>
@@ -16005,7 +16159,7 @@
         <v>428</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
       <c r="E106" s="21"/>
       <c r="F106" s="21"/>
@@ -16013,7 +16167,7 @@
         <v>302</v>
       </c>
       <c r="H106" s="21" t="s">
-        <v>723</v>
+        <v>737</v>
       </c>
       <c r="I106" s="21"/>
       <c r="J106" s="21"/>
@@ -16045,7 +16199,7 @@
         <v>430</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>724</v>
+        <v>738</v>
       </c>
       <c r="E107" s="21"/>
       <c r="F107" s="21"/>
@@ -16085,7 +16239,7 @@
         <v>432</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="E108" s="21"/>
       <c r="F108" s="21"/>
@@ -16093,7 +16247,7 @@
         <v>42</v>
       </c>
       <c r="H108" s="21" t="s">
-        <v>706</v>
+        <v>720</v>
       </c>
       <c r="I108" s="21"/>
       <c r="J108" s="21"/>
@@ -16125,7 +16279,7 @@
         <v>435</v>
       </c>
       <c r="D109" s="21" t="s">
-        <v>726</v>
+        <v>740</v>
       </c>
       <c r="E109" s="21"/>
       <c r="F109" s="21"/>
@@ -16133,7 +16287,7 @@
         <v>294</v>
       </c>
       <c r="H109" s="21" t="s">
-        <v>727</v>
+        <v>741</v>
       </c>
       <c r="I109" s="21"/>
       <c r="J109" s="21"/>
@@ -16162,7 +16316,7 @@
       </c>
       <c r="B110" s="21"/>
       <c r="C110" s="21" t="s">
-        <v>728</v>
+        <v>742</v>
       </c>
       <c r="D110" s="21" t="s">
         <v>343</v>
@@ -16170,7 +16324,7 @@
       <c r="E110" s="21"/>
       <c r="F110" s="21"/>
       <c r="G110" s="21" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
       <c r="H110" s="21" t="s">
         <v>192</v>
@@ -16202,7 +16356,7 @@
       </c>
       <c r="B111" s="21"/>
       <c r="C111" s="21" t="s">
-        <v>729</v>
+        <v>743</v>
       </c>
       <c r="D111" s="21" t="s">
         <v>415</v>
@@ -16242,10 +16396,10 @@
         <v>15</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>730</v>
+        <v>744</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>731</v>
+        <v>745</v>
       </c>
       <c r="E112" s="21"/>
       <c r="F112" s="21"/>
@@ -16253,7 +16407,7 @@
         <v>61</v>
       </c>
       <c r="H112" s="21" t="s">
-        <v>732</v>
+        <v>746</v>
       </c>
       <c r="I112" s="21"/>
       <c r="J112" s="21"/>
@@ -16282,10 +16436,10 @@
         <v>15</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>733</v>
+        <v>747</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>734</v>
+        <v>748</v>
       </c>
       <c r="E113" s="21"/>
       <c r="F113" s="21"/>
@@ -16293,7 +16447,7 @@
         <v>78</v>
       </c>
       <c r="H113" s="21" t="s">
-        <v>716</v>
+        <v>730</v>
       </c>
       <c r="I113" s="21"/>
       <c r="J113" s="21"/>
@@ -16322,10 +16476,10 @@
         <v>15</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>735</v>
+        <v>749</v>
       </c>
       <c r="D114" s="21" t="s">
-        <v>736</v>
+        <v>750</v>
       </c>
       <c r="E114" s="21"/>
       <c r="F114" s="21"/>
@@ -16333,7 +16487,7 @@
         <v>36</v>
       </c>
       <c r="H114" s="21" t="s">
-        <v>719</v>
+        <v>733</v>
       </c>
       <c r="I114" s="21"/>
       <c r="J114" s="21"/>
@@ -16365,7 +16519,7 @@
         <v>444</v>
       </c>
       <c r="D115" s="21" t="s">
-        <v>737</v>
+        <v>751</v>
       </c>
       <c r="E115" s="21"/>
       <c r="F115" s="21"/>
@@ -16405,7 +16559,7 @@
         <v>446</v>
       </c>
       <c r="D116" s="21" t="s">
-        <v>738</v>
+        <v>752</v>
       </c>
       <c r="E116" s="21"/>
       <c r="F116" s="21"/>
@@ -16445,7 +16599,7 @@
         <v>449</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>739</v>
+        <v>753</v>
       </c>
       <c r="E117" s="21"/>
       <c r="F117" s="21"/>
@@ -16485,7 +16639,7 @@
         <v>451</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>740</v>
+        <v>754</v>
       </c>
       <c r="E118" s="21"/>
       <c r="F118" s="21"/>
@@ -16493,7 +16647,7 @@
         <v>302</v>
       </c>
       <c r="H118" s="21" t="s">
-        <v>702</v>
+        <v>716</v>
       </c>
       <c r="I118" s="21"/>
       <c r="J118" s="21"/>
@@ -16525,7 +16679,7 @@
         <v>453</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>741</v>
+        <v>755</v>
       </c>
       <c r="E119" s="21"/>
       <c r="F119" s="21"/>
@@ -16565,7 +16719,7 @@
         <v>455</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>742</v>
+        <v>756</v>
       </c>
       <c r="E120" s="21"/>
       <c r="F120" s="21"/>
@@ -16573,7 +16727,7 @@
         <v>42</v>
       </c>
       <c r="H120" s="21" t="s">
-        <v>706</v>
+        <v>720</v>
       </c>
       <c r="I120" s="21"/>
       <c r="J120" s="21"/>
@@ -16613,7 +16767,7 @@
         <v>294</v>
       </c>
       <c r="H121" s="21" t="s">
-        <v>743</v>
+        <v>757</v>
       </c>
       <c r="I121" s="21"/>
       <c r="J121" s="21"/>
@@ -16642,7 +16796,7 @@
       </c>
       <c r="B122" s="21"/>
       <c r="C122" s="21" t="s">
-        <v>744</v>
+        <v>758</v>
       </c>
       <c r="D122" s="21" t="s">
         <v>343</v>
@@ -16650,7 +16804,7 @@
       <c r="E122" s="21"/>
       <c r="F122" s="21"/>
       <c r="G122" s="21" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
       <c r="H122" s="21" t="s">
         <v>192</v>
@@ -16682,7 +16836,7 @@
       </c>
       <c r="B123" s="21"/>
       <c r="C123" s="21" t="s">
-        <v>745</v>
+        <v>759</v>
       </c>
       <c r="D123" s="21" t="s">
         <v>415</v>
@@ -16722,10 +16876,10 @@
         <v>15</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>746</v>
+        <v>760</v>
       </c>
       <c r="D124" s="21" t="s">
-        <v>747</v>
+        <v>761</v>
       </c>
       <c r="E124" s="21"/>
       <c r="F124" s="21"/>
@@ -16733,7 +16887,7 @@
         <v>61</v>
       </c>
       <c r="H124" s="21" t="s">
-        <v>748</v>
+        <v>762</v>
       </c>
       <c r="I124" s="21"/>
       <c r="J124" s="21"/>
@@ -16762,10 +16916,10 @@
         <v>15</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>749</v>
+        <v>763</v>
       </c>
       <c r="D125" s="21" t="s">
-        <v>750</v>
+        <v>764</v>
       </c>
       <c r="E125" s="21"/>
       <c r="F125" s="21"/>
@@ -16773,7 +16927,7 @@
         <v>78</v>
       </c>
       <c r="H125" s="21" t="s">
-        <v>716</v>
+        <v>730</v>
       </c>
       <c r="I125" s="21"/>
       <c r="J125" s="21"/>
@@ -16802,10 +16956,10 @@
         <v>15</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>751</v>
+        <v>765</v>
       </c>
       <c r="D126" s="21" t="s">
-        <v>718</v>
+        <v>732</v>
       </c>
       <c r="E126" s="21"/>
       <c r="F126" s="21"/>
@@ -16813,7 +16967,7 @@
         <v>36</v>
       </c>
       <c r="H126" s="21" t="s">
-        <v>719</v>
+        <v>733</v>
       </c>
       <c r="I126" s="21"/>
       <c r="J126" s="21"/>
@@ -16845,7 +16999,7 @@
         <v>93</v>
       </c>
       <c r="D127" s="21" t="s">
-        <v>752</v>
+        <v>766</v>
       </c>
       <c r="E127" s="21"/>
       <c r="F127" s="21"/>
@@ -16853,7 +17007,7 @@
         <v>72</v>
       </c>
       <c r="H127" s="21" t="s">
-        <v>753</v>
+        <v>767</v>
       </c>
       <c r="I127" s="21"/>
       <c r="J127" s="21"/>
@@ -16912,10 +17066,10 @@
     </row>
     <row r="129" customFormat="false" ht="498" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="23" t="s">
-        <v>754</v>
+        <v>768</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>755</v>
+        <v>769</v>
       </c>
       <c r="C129" s="23"/>
       <c r="D129" s="23"/>
@@ -16946,10 +17100,10 @@
     </row>
     <row r="130" customFormat="false" ht="55.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="23" t="s">
-        <v>756</v>
+        <v>770</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>757</v>
+        <v>771</v>
       </c>
       <c r="C130" s="23"/>
       <c r="D130" s="23"/>
@@ -16980,10 +17134,10 @@
     </row>
     <row r="131" customFormat="false" ht="120.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="23" t="s">
-        <v>758</v>
+        <v>772</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>759</v>
+        <v>773</v>
       </c>
       <c r="C131" s="23"/>
       <c r="D131" s="23"/>
@@ -17014,10 +17168,10 @@
     </row>
     <row r="132" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="23" t="s">
-        <v>760</v>
+        <v>774</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>761</v>
+        <v>775</v>
       </c>
       <c r="C132" s="23"/>
       <c r="D132" s="23"/>
@@ -17048,10 +17202,10 @@
     </row>
     <row r="133" customFormat="false" ht="713.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="23" t="s">
-        <v>762</v>
+        <v>776</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>763</v>
+        <v>777</v>
       </c>
       <c r="C133" s="23"/>
       <c r="D133" s="23"/>
@@ -17085,7 +17239,7 @@
         <v>468</v>
       </c>
       <c r="B134" s="24" t="s">
-        <v>764</v>
+        <v>778</v>
       </c>
       <c r="C134" s="23"/>
       <c r="D134" s="23"/>
@@ -17287,7 +17441,7 @@
         <v>22</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>765</v>
+        <v>779</v>
       </c>
       <c r="E139" s="21" t="s">
         <v>504</v>
@@ -17328,10 +17482,10 @@
         <v>15</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>766</v>
+        <v>780</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>767</v>
+        <v>781</v>
       </c>
       <c r="E140" s="21" t="s">
         <v>34</v>
@@ -17372,10 +17526,10 @@
         <v>15</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>768</v>
+        <v>782</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>769</v>
+        <v>783</v>
       </c>
       <c r="E141" s="21" t="s">
         <v>59</v>
@@ -17416,7 +17570,7 @@
       </c>
       <c r="B142" s="21"/>
       <c r="C142" s="21" t="s">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="D142" s="21" t="s">
         <v>192</v>
@@ -17458,22 +17612,22 @@
         <v>15</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>771</v>
+        <v>785</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>772</v>
+        <v>786</v>
       </c>
       <c r="E143" s="21" t="s">
-        <v>773</v>
+        <v>787</v>
       </c>
       <c r="F143" s="21" t="s">
-        <v>774</v>
+        <v>788</v>
       </c>
       <c r="G143" s="21" t="s">
         <v>78</v>
       </c>
       <c r="H143" s="21" t="s">
-        <v>775</v>
+        <v>789</v>
       </c>
       <c r="I143" s="21"/>
       <c r="J143" s="21"/>
@@ -17502,22 +17656,22 @@
         <v>15</v>
       </c>
       <c r="C144" s="21" t="s">
-        <v>776</v>
+        <v>790</v>
       </c>
       <c r="D144" s="21" t="s">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="E144" s="21" t="s">
         <v>221</v>
       </c>
       <c r="F144" s="21" t="s">
-        <v>778</v>
+        <v>792</v>
       </c>
       <c r="G144" s="21" t="s">
         <v>288</v>
       </c>
       <c r="H144" s="21" t="s">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="I144" s="21"/>
       <c r="J144" s="21"/>
@@ -17546,13 +17700,13 @@
         <v>15</v>
       </c>
       <c r="C145" s="21" t="s">
-        <v>779</v>
+        <v>793</v>
       </c>
       <c r="D145" s="21" t="s">
-        <v>780</v>
+        <v>794</v>
       </c>
       <c r="E145" s="21" t="s">
-        <v>781</v>
+        <v>795</v>
       </c>
       <c r="F145" s="21" t="s">
         <v>301</v>
@@ -17561,7 +17715,7 @@
         <v>78</v>
       </c>
       <c r="H145" s="21" t="s">
-        <v>780</v>
+        <v>794</v>
       </c>
       <c r="I145" s="21"/>
       <c r="J145" s="21"/>
@@ -17590,7 +17744,7 @@
       </c>
       <c r="B146" s="21"/>
       <c r="C146" s="21" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="D146" s="21" t="s">
         <v>192</v>
@@ -17632,22 +17786,22 @@
         <v>15</v>
       </c>
       <c r="C147" s="21" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="D147" s="21" t="s">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="E147" s="21" t="s">
-        <v>785</v>
+        <v>799</v>
       </c>
       <c r="F147" s="21" t="s">
-        <v>786</v>
+        <v>800</v>
       </c>
       <c r="G147" s="21" t="s">
         <v>103</v>
       </c>
       <c r="H147" s="21" t="s">
-        <v>787</v>
+        <v>801</v>
       </c>
       <c r="I147" s="21"/>
       <c r="J147" s="21"/>
@@ -17676,22 +17830,22 @@
         <v>15</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>788</v>
+        <v>802</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>789</v>
+        <v>803</v>
       </c>
       <c r="E148" s="21" t="s">
-        <v>790</v>
+        <v>804</v>
       </c>
       <c r="F148" s="21" t="s">
-        <v>791</v>
+        <v>805</v>
       </c>
       <c r="G148" s="21" t="s">
         <v>302</v>
       </c>
       <c r="H148" s="21" t="s">
-        <v>792</v>
+        <v>806</v>
       </c>
       <c r="I148" s="21"/>
       <c r="J148" s="21"/>
@@ -17720,22 +17874,22 @@
         <v>15</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>793</v>
+        <v>807</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>794</v>
+        <v>808</v>
       </c>
       <c r="E149" s="21" t="s">
-        <v>795</v>
+        <v>809</v>
       </c>
       <c r="F149" s="21" t="s">
-        <v>796</v>
+        <v>810</v>
       </c>
       <c r="G149" s="21" t="s">
         <v>302</v>
       </c>
       <c r="H149" s="21" t="s">
-        <v>797</v>
+        <v>811</v>
       </c>
       <c r="I149" s="21"/>
       <c r="J149" s="21"/>
@@ -17764,22 +17918,22 @@
         <v>15</v>
       </c>
       <c r="C150" s="21" t="s">
-        <v>798</v>
+        <v>812</v>
       </c>
       <c r="D150" s="21" t="s">
-        <v>799</v>
+        <v>813</v>
       </c>
       <c r="E150" s="21" t="s">
-        <v>800</v>
+        <v>814</v>
       </c>
       <c r="F150" s="21" t="s">
-        <v>801</v>
+        <v>815</v>
       </c>
       <c r="G150" s="21" t="s">
         <v>103</v>
       </c>
       <c r="H150" s="21" t="s">
-        <v>802</v>
+        <v>816</v>
       </c>
       <c r="I150" s="21"/>
       <c r="J150" s="21"/>
@@ -17808,22 +17962,22 @@
         <v>15</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>803</v>
+        <v>817</v>
       </c>
       <c r="D151" s="21" t="s">
-        <v>804</v>
+        <v>818</v>
       </c>
       <c r="E151" s="21" t="s">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="F151" s="21" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="G151" s="21" t="s">
         <v>302</v>
       </c>
       <c r="H151" s="21" t="s">
-        <v>792</v>
+        <v>806</v>
       </c>
       <c r="I151" s="21"/>
       <c r="J151" s="21"/>
@@ -17852,22 +18006,22 @@
         <v>15</v>
       </c>
       <c r="C152" s="21" t="s">
-        <v>807</v>
+        <v>821</v>
       </c>
       <c r="D152" s="21" t="s">
-        <v>808</v>
+        <v>822</v>
       </c>
       <c r="E152" s="21" t="s">
-        <v>809</v>
+        <v>823</v>
       </c>
       <c r="F152" s="21" t="s">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="G152" s="21" t="s">
         <v>103</v>
       </c>
       <c r="H152" s="21" t="s">
-        <v>811</v>
+        <v>825</v>
       </c>
       <c r="I152" s="21"/>
       <c r="J152" s="21"/>
@@ -17896,22 +18050,22 @@
         <v>15</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>812</v>
+        <v>826</v>
       </c>
       <c r="D153" s="21" t="s">
-        <v>813</v>
+        <v>827</v>
       </c>
       <c r="E153" s="21" t="s">
-        <v>814</v>
+        <v>828</v>
       </c>
       <c r="F153" s="21" t="s">
-        <v>815</v>
+        <v>829</v>
       </c>
       <c r="G153" s="21" t="s">
         <v>302</v>
       </c>
       <c r="H153" s="21" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="I153" s="21"/>
       <c r="J153" s="21"/>
@@ -17940,22 +18094,22 @@
         <v>15</v>
       </c>
       <c r="C154" s="21" t="s">
-        <v>817</v>
+        <v>831</v>
       </c>
       <c r="D154" s="21" t="s">
-        <v>818</v>
+        <v>832</v>
       </c>
       <c r="E154" s="21" t="s">
-        <v>819</v>
+        <v>833</v>
       </c>
       <c r="F154" s="21" t="s">
-        <v>820</v>
+        <v>834</v>
       </c>
       <c r="G154" s="21" t="s">
         <v>103</v>
       </c>
       <c r="H154" s="21" t="s">
-        <v>802</v>
+        <v>816</v>
       </c>
       <c r="I154" s="21"/>
       <c r="J154" s="21"/>
@@ -17984,22 +18138,22 @@
         <v>15</v>
       </c>
       <c r="C155" s="21" t="s">
-        <v>821</v>
+        <v>835</v>
       </c>
       <c r="D155" s="21" t="s">
-        <v>822</v>
+        <v>836</v>
       </c>
       <c r="E155" s="21" t="s">
-        <v>823</v>
+        <v>837</v>
       </c>
       <c r="F155" s="21" t="s">
-        <v>824</v>
+        <v>838</v>
       </c>
       <c r="G155" s="21" t="s">
         <v>302</v>
       </c>
       <c r="H155" s="21" t="s">
-        <v>825</v>
+        <v>839</v>
       </c>
       <c r="I155" s="21"/>
       <c r="J155" s="21"/>
@@ -18028,22 +18182,22 @@
         <v>15</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="D156" s="21" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
       <c r="E156" s="21" t="s">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="F156" s="21" t="s">
-        <v>829</v>
+        <v>843</v>
       </c>
       <c r="G156" s="21" t="s">
         <v>103</v>
       </c>
       <c r="H156" s="21" t="s">
-        <v>830</v>
+        <v>844</v>
       </c>
       <c r="I156" s="21"/>
       <c r="J156" s="21"/>
@@ -18072,22 +18226,22 @@
         <v>15</v>
       </c>
       <c r="C157" s="21" t="s">
-        <v>831</v>
+        <v>845</v>
       </c>
       <c r="D157" s="21" t="s">
-        <v>832</v>
+        <v>846</v>
       </c>
       <c r="E157" s="21" t="s">
-        <v>833</v>
+        <v>847</v>
       </c>
       <c r="F157" s="21" t="s">
-        <v>834</v>
+        <v>848</v>
       </c>
       <c r="G157" s="21" t="s">
         <v>302</v>
       </c>
       <c r="H157" s="21" t="s">
-        <v>797</v>
+        <v>811</v>
       </c>
       <c r="I157" s="21"/>
       <c r="J157" s="21"/>
@@ -18116,22 +18270,22 @@
         <v>15</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="D158" s="21" t="s">
-        <v>836</v>
+        <v>850</v>
       </c>
       <c r="E158" s="21" t="s">
-        <v>837</v>
+        <v>851</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>838</v>
+        <v>852</v>
       </c>
       <c r="G158" s="21" t="s">
         <v>103</v>
       </c>
       <c r="H158" s="21" t="s">
-        <v>802</v>
+        <v>816</v>
       </c>
       <c r="I158" s="21"/>
       <c r="J158" s="21"/>
@@ -18160,22 +18314,22 @@
         <v>15</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>839</v>
+        <v>853</v>
       </c>
       <c r="D159" s="21" t="s">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="E159" s="21" t="s">
-        <v>773</v>
+        <v>855</v>
       </c>
       <c r="F159" s="21" t="s">
-        <v>841</v>
+        <v>856</v>
       </c>
       <c r="G159" s="21" t="s">
         <v>302</v>
       </c>
       <c r="H159" s="21" t="s">
-        <v>797</v>
+        <v>811</v>
       </c>
       <c r="I159" s="21"/>
       <c r="J159" s="21"/>
@@ -18204,22 +18358,22 @@
         <v>15</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>842</v>
+        <v>857</v>
       </c>
       <c r="D160" s="21" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="E160" s="21" t="s">
-        <v>844</v>
+        <v>859</v>
       </c>
       <c r="F160" s="21" t="s">
-        <v>845</v>
+        <v>860</v>
       </c>
       <c r="G160" s="21" t="s">
         <v>103</v>
       </c>
       <c r="H160" s="21" t="s">
-        <v>802</v>
+        <v>816</v>
       </c>
       <c r="I160" s="21"/>
       <c r="J160" s="21"/>
@@ -18248,22 +18402,22 @@
         <v>15</v>
       </c>
       <c r="C161" s="21" t="s">
-        <v>846</v>
+        <v>861</v>
       </c>
       <c r="D161" s="21" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="E161" s="21" t="s">
-        <v>848</v>
+        <v>863</v>
       </c>
       <c r="F161" s="21" t="s">
-        <v>849</v>
+        <v>864</v>
       </c>
       <c r="G161" s="21" t="s">
         <v>302</v>
       </c>
       <c r="H161" s="21" t="s">
-        <v>792</v>
+        <v>806</v>
       </c>
       <c r="I161" s="21"/>
       <c r="J161" s="21"/>
@@ -18292,17 +18446,17 @@
       </c>
       <c r="B162" s="21"/>
       <c r="C162" s="21" t="s">
-        <v>850</v>
+        <v>865</v>
       </c>
       <c r="D162" s="21" t="s">
         <v>192</v>
       </c>
       <c r="E162" s="21"/>
       <c r="F162" s="21" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="G162" s="21" t="s">
-        <v>851</v>
+        <v>866</v>
       </c>
       <c r="H162" s="21" t="s">
         <v>192</v>
@@ -18334,22 +18488,22 @@
         <v>15</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="D163" s="21" t="s">
-        <v>853</v>
+        <v>868</v>
       </c>
       <c r="E163" s="21" t="s">
-        <v>854</v>
+        <v>869</v>
       </c>
       <c r="F163" s="21" t="s">
-        <v>855</v>
+        <v>870</v>
       </c>
       <c r="G163" s="21" t="s">
         <v>42</v>
       </c>
       <c r="H163" s="21" t="s">
-        <v>856</v>
+        <v>871</v>
       </c>
       <c r="I163" s="21"/>
       <c r="J163" s="21"/>
@@ -18378,22 +18532,22 @@
         <v>15</v>
       </c>
       <c r="C164" s="21" t="s">
-        <v>857</v>
+        <v>872</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>858</v>
+        <v>873</v>
       </c>
       <c r="E164" s="21" t="s">
-        <v>859</v>
+        <v>874</v>
       </c>
       <c r="F164" s="21" t="s">
-        <v>860</v>
+        <v>875</v>
       </c>
       <c r="G164" s="21" t="s">
-        <v>861</v>
+        <v>876</v>
       </c>
       <c r="H164" s="21" t="s">
-        <v>862</v>
+        <v>877</v>
       </c>
       <c r="I164" s="21"/>
       <c r="J164" s="21"/>
@@ -18429,10 +18583,10 @@
       </c>
       <c r="E165" s="21"/>
       <c r="F165" s="21" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="G165" s="21" t="s">
-        <v>863</v>
+        <v>878</v>
       </c>
       <c r="H165" s="21" t="s">
         <v>192</v>
@@ -18479,7 +18633,7 @@
         <v>72</v>
       </c>
       <c r="H166" s="21" t="s">
-        <v>864</v>
+        <v>879</v>
       </c>
       <c r="I166" s="21"/>
       <c r="J166" s="21"/>
